--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814481.382147833</v>
+        <v>811633.1925209967</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.8204798537886</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>22.8204798537886</v>
+        <v>13.86094179307565</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>22.18377097422228</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>20.10027865521701</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>20.10027865521876</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.10027865521701</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="H4" t="n">
-        <v>20.10027865521701</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8204798537886</v>
+        <v>20.10027865521877</v>
       </c>
       <c r="X4" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>49.79500702712463</v>
+        <v>44.00343544142157</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>37.12738969971013</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>46.49613729883792</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.65546709791184</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24.65546709791184</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1126601249237</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
-        <v>69.11209925255308</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>48.84734916635383</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>108.5166779089043</v>
+        <v>71.9427548314121</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W10" t="n">
-        <v>112.1126601249237</v>
+        <v>51.82194179032386</v>
       </c>
       <c r="X10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.82194179032387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272.6757250332596</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5358524338132</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>133.4004220955983</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.3099034802228</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5104786936014</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.98965543945178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9462261850435</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>295.8155657865184</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>86.43532762764653</v>
       </c>
       <c r="I15" t="n">
-        <v>7.546487457097214</v>
+        <v>7.546487457097228</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12.64712946828493</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2870914326929</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7513658948475</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.59222600424921</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.9862434029472</v>
       </c>
       <c r="T16" t="n">
         <v>218.3763319019425</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346874</v>
+        <v>63.63566166346875</v>
       </c>
       <c r="T17" t="n">
         <v>169.6295162240891</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3360238328296</v>
+        <v>41.61558612467415</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.9072985956844</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2020,7 @@
         <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753517</v>
+        <v>56.48898768753519</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.98202365203529</v>
       </c>
       <c r="S19" t="n">
         <v>153.3760410507332</v>
       </c>
       <c r="T19" t="n">
-        <v>161.3717824827062</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U19" t="n">
         <v>254.5866662698982</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>150.1510702525569</v>
       </c>
       <c r="W19" t="n">
         <v>254.9127959843771</v>
@@ -2068,7 +2068,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>145.3524015603138</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
@@ -2096,7 +2096,7 @@
         <v>378.6997011280089</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7317382035083</v>
+        <v>79.01130049535212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.98202365203528</v>
       </c>
       <c r="S22" t="n">
-        <v>127.9816939837101</v>
+        <v>153.3760410507332</v>
       </c>
       <c r="T22" t="n">
-        <v>186.7661295497286</v>
+        <v>116.3897588306708</v>
       </c>
       <c r="U22" t="n">
         <v>254.5866662698982</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2491,7 +2491,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I25" t="n">
         <v>54.52629139453013</v>
@@ -2564,7 +2564,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.265843389497</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
         <v>378.5542040247498</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645676</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943564</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452961</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295267</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3187,7 +3187,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464144</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038374</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453027</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3898,25 +3898,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424825</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368238</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="C2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="D2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="E2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="F2" t="n">
-        <v>47.92761789090632</v>
+        <v>38.8775794457439</v>
       </c>
       <c r="G2" t="n">
-        <v>24.8766281396047</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="H2" t="n">
-        <v>24.8766281396047</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="I2" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="J2" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="K2" t="n">
-        <v>1.825638388303088</v>
+        <v>10.8052281813891</v>
       </c>
       <c r="L2" t="n">
-        <v>24.4179134435538</v>
+        <v>10.8052281813891</v>
       </c>
       <c r="M2" t="n">
-        <v>47.01018849880452</v>
+        <v>33.3975032366418</v>
       </c>
       <c r="N2" t="n">
-        <v>69.60246355405525</v>
+        <v>55.9897782918945</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515441</v>
+        <v>68.68964435990972</v>
       </c>
       <c r="P2" t="n">
-        <v>91.28191941515441</v>
+        <v>68.68964435990972</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="R2" t="n">
-        <v>91.28191941515441</v>
+        <v>68.23092966385877</v>
       </c>
       <c r="S2" t="n">
-        <v>91.28191941515441</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="T2" t="n">
-        <v>91.28191941515441</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="U2" t="n">
-        <v>91.28191941515441</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="V2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="W2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="X2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.97860764220793</v>
+        <v>45.82308019494738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.825638388303088</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="C3" t="n">
-        <v>1.825638388303088</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="D3" t="n">
-        <v>1.825638388303088</v>
+        <v>68.23092966385877</v>
       </c>
       <c r="E3" t="n">
-        <v>1.825638388303088</v>
+        <v>45.17993991255513</v>
       </c>
       <c r="F3" t="n">
-        <v>1.825638388303088</v>
+        <v>45.17993991255513</v>
       </c>
       <c r="G3" t="n">
-        <v>1.825638388303088</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="H3" t="n">
-        <v>1.825638388303088</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="I3" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="J3" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="L3" t="n">
-        <v>24.4179134435538</v>
+        <v>24.41791344355595</v>
       </c>
       <c r="M3" t="n">
-        <v>47.01018849880452</v>
+        <v>32.89607212615444</v>
       </c>
       <c r="N3" t="n">
-        <v>69.60246355405525</v>
+        <v>55.48834718140714</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223665297</v>
+        <v>78.08062223665983</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="R3" t="n">
-        <v>68.23092966385279</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="S3" t="n">
-        <v>45.17993991255118</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="T3" t="n">
-        <v>22.12895016124956</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="U3" t="n">
-        <v>22.12895016124956</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="V3" t="n">
-        <v>22.12895016124956</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="W3" t="n">
-        <v>1.825638388303088</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="X3" t="n">
-        <v>1.825638388303088</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.825638388303088</v>
+        <v>91.28191941516242</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.17993991255118</v>
+        <v>70.97860764221417</v>
       </c>
       <c r="C4" t="n">
-        <v>45.17993991255118</v>
+        <v>70.97860764221417</v>
       </c>
       <c r="D4" t="n">
-        <v>45.17993991255118</v>
+        <v>70.97860764221417</v>
       </c>
       <c r="E4" t="n">
-        <v>45.17993991255118</v>
+        <v>47.92761789091053</v>
       </c>
       <c r="F4" t="n">
-        <v>45.17993991255118</v>
+        <v>47.92761789091053</v>
       </c>
       <c r="G4" t="n">
-        <v>45.17993991255118</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="H4" t="n">
-        <v>24.8766281396047</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="I4" t="n">
-        <v>1.825638388303088</v>
+        <v>24.87662813960689</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303088</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="K4" t="n">
-        <v>24.4179134435538</v>
+        <v>1.825638388303249</v>
       </c>
       <c r="L4" t="n">
-        <v>47.01018849880452</v>
+        <v>24.41791344355595</v>
       </c>
       <c r="M4" t="n">
-        <v>68.6896443599037</v>
+        <v>47.01018849880865</v>
       </c>
       <c r="N4" t="n">
-        <v>91.28191941515441</v>
+        <v>69.60246355406134</v>
       </c>
       <c r="O4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="P4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="R4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="S4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="T4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="U4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="V4" t="n">
-        <v>91.28191941515441</v>
+        <v>91.28191941516242</v>
       </c>
       <c r="W4" t="n">
-        <v>68.23092966385279</v>
+        <v>70.97860764221417</v>
       </c>
       <c r="X4" t="n">
-        <v>45.17993991255118</v>
+        <v>70.97860764221417</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.17993991255118</v>
+        <v>70.97860764221417</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="C5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="D5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="E5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5795743543409</v>
+        <v>98.72950204554996</v>
       </c>
       <c r="G5" t="n">
         <v>54.28158745825545</v>
@@ -4571,19 +4571,19 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>53.28065751902335</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>102.5777144758767</v>
+        <v>69.12296495893611</v>
       </c>
       <c r="N5" t="n">
-        <v>151.8747714327301</v>
+        <v>118.4200219157895</v>
       </c>
       <c r="O5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Q5" t="n">
         <v>199.1800281084985</v>
@@ -4592,25 +4592,25 @@
         <v>149.0274889416355</v>
       </c>
       <c r="S5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="T5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="U5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="V5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="W5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="X5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.5250751035444</v>
+        <v>149.0274889416355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.28158745825545</v>
+        <v>148.882041212413</v>
       </c>
       <c r="C6" t="n">
-        <v>54.28158745825545</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D6" t="n">
-        <v>54.28158745825545</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E6" t="n">
         <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W6" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X6" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.28158745825545</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08285045946729</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="C7" t="n">
-        <v>72.08285045946729</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="D7" t="n">
-        <v>72.08285045946729</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="E7" t="n">
-        <v>72.08285045946729</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="F7" t="n">
         <v>47.17833823935432</v>
@@ -4726,19 +4726,19 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
+        <v>3.98360056216997</v>
+      </c>
+      <c r="L7" t="n">
         <v>53.28065751902335</v>
       </c>
-      <c r="L7" t="n">
-        <v>102.5777144758767</v>
-      </c>
       <c r="M7" t="n">
+        <v>100.5859141947917</v>
+      </c>
+      <c r="N7" t="n">
+        <v>100.5859141947917</v>
+      </c>
+      <c r="O7" t="n">
         <v>149.8829711516451</v>
-      </c>
-      <c r="N7" t="n">
-        <v>199.1800281084985</v>
-      </c>
-      <c r="O7" t="n">
-        <v>199.1800281084985</v>
       </c>
       <c r="P7" t="n">
         <v>199.1800281084985</v>
@@ -4747,28 +4747,28 @@
         <v>172.6788242516383</v>
       </c>
       <c r="R7" t="n">
+        <v>172.6788242516383</v>
+      </c>
+      <c r="S7" t="n">
+        <v>172.6788242516383</v>
+      </c>
+      <c r="T7" t="n">
+        <v>172.6788242516383</v>
+      </c>
+      <c r="U7" t="n">
+        <v>172.6788242516383</v>
+      </c>
+      <c r="V7" t="n">
+        <v>172.6788242516383</v>
+      </c>
+      <c r="W7" t="n">
         <v>122.3808373555528</v>
-      </c>
-      <c r="S7" t="n">
-        <v>122.3808373555528</v>
-      </c>
-      <c r="T7" t="n">
-        <v>122.3808373555528</v>
-      </c>
-      <c r="U7" t="n">
-        <v>122.3808373555528</v>
-      </c>
-      <c r="V7" t="n">
-        <v>122.3808373555528</v>
-      </c>
-      <c r="W7" t="n">
-        <v>72.08285045946729</v>
       </c>
       <c r="X7" t="n">
         <v>72.08285045946729</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.08285045946729</v>
+        <v>47.17833823935432</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.5145477870889</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="C8" t="n">
-        <v>418.5145477870889</v>
+        <v>29.43845734150828</v>
       </c>
       <c r="D8" t="n">
-        <v>418.5145477870889</v>
+        <v>29.43845734150828</v>
       </c>
       <c r="E8" t="n">
-        <v>418.5145477870889</v>
+        <v>29.43845734150828</v>
       </c>
       <c r="F8" t="n">
-        <v>305.2694365497923</v>
+        <v>22.49295659230481</v>
       </c>
       <c r="G8" t="n">
-        <v>192.0243253124956</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993892</v>
@@ -4844,10 +4844,10 @@
         <v>418.5145477870889</v>
       </c>
       <c r="X8" t="n">
-        <v>418.5145477870889</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="C9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="D9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="E9" t="n">
-        <v>335.205529262398</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="F9" t="n">
-        <v>225.5927232938078</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="G9" t="n">
         <v>112.3476120565112</v>
@@ -4887,16 +4887,16 @@
         <v>8.969012809993892</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672062</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>313.9191793512205</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>413.9712807824704</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="Y9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.9572193019013</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="C10" t="n">
-        <v>41.9572193019013</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="D10" t="n">
         <v>41.9572193019013</v>
@@ -4963,13 +4963,13 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193852</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656129</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892873</v>
+        <v>230.9520798573427</v>
       </c>
       <c r="N10" t="n">
         <v>337.4591069760202</v>
@@ -4984,28 +4984,28 @@
         <v>434.037948761593</v>
       </c>
       <c r="R10" t="n">
-        <v>320.7928375242964</v>
+        <v>434.037948761593</v>
       </c>
       <c r="S10" t="n">
-        <v>320.7928375242964</v>
+        <v>434.037948761593</v>
       </c>
       <c r="T10" t="n">
-        <v>320.7928375242964</v>
+        <v>434.037948761593</v>
       </c>
       <c r="U10" t="n">
         <v>320.7928375242964</v>
       </c>
       <c r="V10" t="n">
-        <v>320.7928375242964</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="W10" t="n">
-        <v>207.5477262869998</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="X10" t="n">
-        <v>94.30261504970319</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.9572193019013</v>
+        <v>155.2023305391979</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839473</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.774278995485</v>
+        <v>2599.371408077979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.634947019674</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218363</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218363</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218363</v>
+        <v>458.6408346941416</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117485</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1792.546646981828</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1503.443780107471</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409313</v>
+        <v>1248.759291901584</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039708</v>
+        <v>959.3421218646239</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059534</v>
+        <v>959.3421218646239</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624233</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2237.576431192744</v>
+        <v>2038.060448107743</v>
       </c>
       <c r="C14" t="n">
-        <v>1868.613914252331</v>
+        <v>1669.097931167332</v>
       </c>
       <c r="D14" t="n">
-        <v>1510.348215645581</v>
+        <v>1310.832232560581</v>
       </c>
       <c r="E14" t="n">
-        <v>1124.559963047336</v>
+        <v>925.0439799623368</v>
       </c>
       <c r="F14" t="n">
-        <v>713.5740582577288</v>
+        <v>514.0580751727292</v>
       </c>
       <c r="G14" t="n">
-        <v>299.1196102979078</v>
+        <v>99.60362721290819</v>
       </c>
       <c r="H14" t="n">
-        <v>81.43225808214883</v>
+        <v>99.60362721290819</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J14" t="n">
-        <v>321.7197547946566</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049091</v>
+        <v>732.5869425049084</v>
       </c>
       <c r="L14" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M14" t="n">
-        <v>1919.094000724847</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N14" t="n">
         <v>2573.950088109355</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646707</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
         <v>3660.852212359284</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.547786707332</v>
+        <v>3974.547786707331</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.612904107442</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="S14" t="n">
-        <v>4071.612904107442</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="T14" t="n">
-        <v>4071.612904107442</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="U14" t="n">
-        <v>4071.612904107442</v>
+        <v>3818.131867556892</v>
       </c>
       <c r="V14" t="n">
-        <v>3740.550016763872</v>
+        <v>3487.068980213321</v>
       </c>
       <c r="W14" t="n">
-        <v>3387.781361493757</v>
+        <v>3188.265378408757</v>
       </c>
       <c r="X14" t="n">
-        <v>3014.315603232677</v>
+        <v>2814.799620147677</v>
       </c>
       <c r="Y14" t="n">
-        <v>2624.176271256866</v>
+        <v>2424.660288171865</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>89.05497268527733</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J15" t="n">
         <v>205.7279980329771</v>
       </c>
       <c r="K15" t="n">
-        <v>496.3240398680472</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="L15" t="n">
-        <v>933.3888210494162</v>
+        <v>933.388821049416</v>
       </c>
       <c r="M15" t="n">
         <v>1462.779673846421</v>
@@ -5370,10 +5370,10 @@
         <v>2020.590572181065</v>
       </c>
       <c r="O15" t="n">
-        <v>2508.658771753944</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="P15" t="n">
-        <v>2508.658771753944</v>
+        <v>2392.975264947574</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.424193196089</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3639954297344</v>
+        <v>263.1433192608486</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3639954297344</v>
+        <v>94.20713633294167</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3639954297344</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="E16" t="n">
-        <v>379.4509018473412</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="F16" t="n">
-        <v>248.8578801981564</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="G16" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J16" t="n">
         <v>145.7639349251849</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021266</v>
+        <v>381.3174786021265</v>
       </c>
       <c r="L16" t="n">
-        <v>738.2713508649248</v>
+        <v>738.2713508649247</v>
       </c>
       <c r="M16" t="n">
-        <v>1125.018283634586</v>
+        <v>1125.018283634585</v>
       </c>
       <c r="N16" t="n">
         <v>1508.003855186736</v>
@@ -5458,28 +5458,28 @@
         <v>2211.566148063616</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.566148063616</v>
+        <v>2134.200263210839</v>
       </c>
       <c r="S16" t="n">
-        <v>2211.566148063616</v>
+        <v>1947.345471894731</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.983994627311</v>
+        <v>1726.763318458425</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.896248544369</v>
+        <v>1437.675572375483</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.211760338482</v>
+        <v>1182.991084169596</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.794590301522</v>
+        <v>893.5739141326358</v>
       </c>
       <c r="X16" t="n">
-        <v>929.8050394035042</v>
+        <v>665.5843632346184</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.0124602599741</v>
+        <v>444.7917840910883</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1456.197359537768</v>
       </c>
       <c r="E17" t="n">
-        <v>1102.338604264992</v>
+        <v>1102.338604264993</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008534</v>
+        <v>723.2821968008539</v>
       </c>
       <c r="G17" t="n">
         <v>340.7572461665006</v>
@@ -5516,13 +5516,13 @@
         <v>321.7197547946562</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049091</v>
       </c>
       <c r="L17" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079391</v>
       </c>
       <c r="M17" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724847</v>
       </c>
       <c r="N17" t="n">
         <v>2573.950088109355</v>
@@ -5531,7 +5531,7 @@
         <v>3178.976860646706</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q17" t="n">
         <v>3974.547786707331</v>
@@ -5546,16 +5546,16 @@
         <v>3835.991512301827</v>
       </c>
       <c r="U17" t="n">
-        <v>3614.439973076747</v>
+        <v>3793.955566721348</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.306583058645</v>
+        <v>3494.822176703246</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.467425113999</v>
+        <v>3173.9830187586</v>
       </c>
       <c r="X17" t="n">
-        <v>2652.931164178388</v>
+        <v>2832.446757822989</v>
       </c>
       <c r="Y17" t="n">
         <v>2474.236923172646</v>
@@ -5598,19 +5598,19 @@
         <v>496.3240398680471</v>
       </c>
       <c r="L18" t="n">
-        <v>496.3240398680471</v>
+        <v>933.388821049416</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.714892665053</v>
+        <v>940.1502935420004</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.525790999696</v>
+        <v>1497.961191876644</v>
       </c>
       <c r="O18" t="n">
-        <v>2071.593990572575</v>
+        <v>1986.029391449523</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.978683339084</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="Q18" t="n">
         <v>2557.424193196089</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.9488409701651</v>
+        <v>871.9488409701647</v>
       </c>
       <c r="C19" t="n">
-        <v>734.9421553677267</v>
+        <v>734.9421553677264</v>
       </c>
       <c r="D19" t="n">
-        <v>616.7550132808591</v>
+        <v>616.7550132808593</v>
       </c>
       <c r="E19" t="n">
-        <v>500.7714170239346</v>
+        <v>500.7714170239348</v>
       </c>
       <c r="F19" t="n">
-        <v>385.8109668514929</v>
+        <v>385.810966851493</v>
       </c>
       <c r="G19" t="n">
         <v>250.314842060954</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049115</v>
+        <v>138.4918416049116</v>
       </c>
       <c r="I19" t="n">
         <v>81.43225808214882</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538768</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K19" t="n">
-        <v>443.9056792595102</v>
+        <v>443.9056792595101</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509999</v>
       </c>
       <c r="M19" t="n">
         <v>1250.194684949353</v>
       </c>
       <c r="N19" t="n">
-        <v>1664.474356830194</v>
+        <v>1664.474356830195</v>
       </c>
       <c r="O19" t="n">
         <v>2033.501324983835</v>
@@ -5692,19 +5692,19 @@
         <v>2330.263556663727</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.91895069315</v>
+        <v>2461.918950693151</v>
       </c>
       <c r="R19" t="n">
-        <v>2461.91895069315</v>
+        <v>2416.482563165842</v>
       </c>
       <c r="S19" t="n">
-        <v>2306.993656702511</v>
+        <v>2261.557269175203</v>
       </c>
       <c r="T19" t="n">
-        <v>2143.991856214929</v>
+        <v>2072.904613064366</v>
       </c>
       <c r="U19" t="n">
-        <v>1886.833607457457</v>
+        <v>1815.746364306894</v>
       </c>
       <c r="V19" t="n">
         <v>1664.078616577038</v>
@@ -5713,7 +5713,7 @@
         <v>1406.590943865546</v>
       </c>
       <c r="X19" t="n">
-        <v>1210.530890292998</v>
+        <v>1210.530890292997</v>
       </c>
       <c r="Y19" t="n">
         <v>1021.667808474936</v>
@@ -5732,16 +5732,16 @@
         <v>1603.017967174448</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537768</v>
+        <v>1276.681765893166</v>
       </c>
       <c r="E20" t="n">
-        <v>1102.338604264992</v>
+        <v>922.8230106203905</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008534</v>
+        <v>543.7666031562517</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7572461665006</v>
+        <v>161.2416525218985</v>
       </c>
       <c r="H20" t="n">
         <v>81.43225808214882</v>
@@ -5756,7 +5756,7 @@
         <v>732.5869425049086</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079391</v>
       </c>
       <c r="M20" t="n">
         <v>1919.094000724846</v>
@@ -5783,7 +5783,7 @@
         <v>3835.991512301827</v>
       </c>
       <c r="U20" t="n">
-        <v>3614.439973076747</v>
+        <v>3614.439973076746</v>
       </c>
       <c r="V20" t="n">
         <v>3315.306583058645</v>
@@ -5835,19 +5835,19 @@
         <v>496.3240398680471</v>
       </c>
       <c r="L21" t="n">
-        <v>933.388821049416</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="M21" t="n">
-        <v>1462.779673846421</v>
+        <v>1025.714892665053</v>
       </c>
       <c r="N21" t="n">
-        <v>2020.590572181065</v>
+        <v>1583.525790999696</v>
       </c>
       <c r="O21" t="n">
-        <v>2508.658771753943</v>
+        <v>2071.593990572575</v>
       </c>
       <c r="P21" t="n">
-        <v>2557.424193196089</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.424193196089</v>
@@ -5908,22 +5908,22 @@
         <v>81.43225808214882</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K22" t="n">
-        <v>443.9056792595101</v>
+        <v>443.9056792595099</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518510001</v>
+        <v>832.1536518509998</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N22" t="n">
         <v>1664.474356830194</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P22" t="n">
         <v>2330.263556663727</v>
@@ -5932,10 +5932,10 @@
         <v>2461.91895069315</v>
       </c>
       <c r="R22" t="n">
-        <v>2461.91895069315</v>
+        <v>2416.482563165842</v>
       </c>
       <c r="S22" t="n">
-        <v>2332.644512325766</v>
+        <v>2261.557269175202</v>
       </c>
       <c r="T22" t="n">
         <v>2143.991856214929</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,37 +6002,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.274605188203</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2303.534908062855</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6130,28 +6130,28 @@
         <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6169,7 +6169,7 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,10 +6236,10 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
@@ -6257,19 +6257,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511622</v>
@@ -6306,22 +6306,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.855734147773</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,37 +6397,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
         <v>4188.091007924547</v>
@@ -6537,28 +6537,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>875.4343898857001</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609035</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F31" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315373</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897919</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>326.515925275411</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L33" t="n">
-        <v>326.515925275411</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857001</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902788</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
         <v>1458.093420216582</v>
@@ -6929,25 +6929,25 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6956,22 +6956,22 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
@@ -7011,31 +7011,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
         <v>617.6685920609046</v>
@@ -7084,25 +7084,25 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
@@ -7114,10 +7114,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
@@ -7160,61 +7160,61 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7248,28 +7248,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
-        <v>118.5947109415081</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>421.6357602913726</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>875.4343898857001</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7315,28 +7315,28 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7366,10 +7366,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073043</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G41" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>118.5947109415081</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>421.6357602913726</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>875.4343898857001</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857001</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>1968.593900456</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,73 +7543,73 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
         <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443617</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>875.4343898857001</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>875.4343898857001</v>
+        <v>1262.535945437856</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.289737812102</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P45" t="n">
         <v>2346.796248312508</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7831,13 +7831,13 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357084</v>
@@ -7846,10 +7846,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.67529486154788</v>
+        <v>58.6752948615469</v>
       </c>
       <c r="K2" t="n">
-        <v>36.68802846506804</v>
+        <v>45.75832118535534</v>
       </c>
       <c r="L2" t="n">
-        <v>31.06071641488818</v>
+        <v>8.240236561097788</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070292720288737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>23.90096867847629</v>
+        <v>23.90096867847464</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390824</v>
+        <v>89.4284519476976</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>53.95452987271156</v>
+        <v>53.95452987271098</v>
       </c>
       <c r="K3" t="n">
-        <v>13.27261790462936</v>
+        <v>13.27261790462838</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.50957460172319</v>
+        <v>41.50957460172241</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>76.69431760924431</v>
+        <v>53.87383775545511</v>
       </c>
       <c r="L4" t="n">
-        <v>61.55256760073789</v>
+        <v>61.55256760073912</v>
       </c>
       <c r="M4" t="n">
-        <v>59.44480118964998</v>
+        <v>60.36684077970324</v>
       </c>
       <c r="N4" t="n">
-        <v>51.53717738263391</v>
+        <v>51.53717738263512</v>
       </c>
       <c r="O4" t="n">
-        <v>47.04278973402907</v>
+        <v>68.94122999776681</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797236</v>
+        <v>59.50774980797175</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,7 +8219,7 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>33.792676279738</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.071506947949025</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>92.88280094721958</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8374,7 +8374,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>95.66285413274987</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
         <v>78.28218310839884</v>
@@ -8383,13 +8383,13 @@
         <v>74.5276255683506</v>
       </c>
       <c r="N7" t="n">
-        <v>67.96672485263689</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>87.09780125070267</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>100.9685080396866</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,7 +8611,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
         <v>119.3514840274684</v>
@@ -8620,7 +8620,7 @@
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>26.40320770029784</v>
+        <v>103.8838683386257</v>
       </c>
       <c r="O10" t="n">
         <v>129.2143182548924</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.058116630221</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>222.7020862222404</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>86.14852718057094</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.83146186212085</v>
+        <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
-        <v>17.98965543945175</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.24586401568264</v>
+        <v>95.24586401568267</v>
       </c>
       <c r="T14" t="n">
         <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>53.42540293089456</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.9683435499274</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>16.13395659023837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7513658948475</v>
       </c>
       <c r="H16" t="n">
         <v>142.3149728036959</v>
       </c>
       <c r="I16" t="n">
-        <v>88.09919003974909</v>
+        <v>88.0991900397491</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.5922260042492</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.9862434029471</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.7204377081555</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>177.7204377081552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203528</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.39434706702243</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>70.37637071905718</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>177.7204377081552</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>177.7204377081561</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203528</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>25.39434706702308</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.3763707190578</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.209912170452299e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831811.8047604809</v>
+        <v>831811.804760481</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913972.091739201</v>
+        <v>913972.0917392009</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979666.1953808196</v>
+        <v>979666.1953808194</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>998668.8910674113</v>
+        <v>998668.8910674112</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680128</v>
@@ -26326,7 +26326,7 @@
         <v>412753.6070665927</v>
       </c>
       <c r="G2" t="n">
-        <v>442863.4045690012</v>
+        <v>442863.4045690013</v>
       </c>
       <c r="H2" t="n">
         <v>442863.4045690013</v>
@@ -26335,25 +26335,25 @@
         <v>451572.973425356</v>
       </c>
       <c r="J2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="L2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.973425356</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253564</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253559</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738446</v>
+        <v>353244.276573848</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761819092</v>
+        <v>43511.74761818768</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>173736.0360376488</v>
+        <v>173736.0360376485</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177097</v>
+        <v>25288.16188177113</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.8941666813</v>
+        <v>39037.89416668107</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630864606</v>
+        <v>5970.841630865189</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109547204</v>
+        <v>6942.380109546631</v>
       </c>
       <c r="L3" t="n">
         <v>41060.1990219462</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376344</v>
+        <v>45679.31917376324</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345891.878038678</v>
+        <v>345891.878038677</v>
       </c>
       <c r="C4" t="n">
         <v>332624.1818074201</v>
@@ -26430,34 +26430,34 @@
         <v>14136.53033759198</v>
       </c>
       <c r="G4" t="n">
-        <v>45461.26203724227</v>
+        <v>45461.26203724225</v>
       </c>
       <c r="H4" t="n">
         <v>45461.26203724227</v>
       </c>
       <c r="I4" t="n">
+        <v>45229.37087109617</v>
+      </c>
+      <c r="J4" t="n">
         <v>45229.37087109618</v>
       </c>
-      <c r="J4" t="n">
-        <v>45229.37087109617</v>
-      </c>
       <c r="K4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109618</v>
       </c>
       <c r="L4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="M4" t="n">
         <v>45229.37087109618</v>
       </c>
-      <c r="M4" t="n">
-        <v>45229.37087109617</v>
-      </c>
       <c r="N4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109628</v>
       </c>
       <c r="O4" t="n">
-        <v>45229.37087109611</v>
+        <v>45229.37087109618</v>
       </c>
       <c r="P4" t="n">
-        <v>45229.37087109611</v>
+        <v>45229.37087109619</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690792</v>
+        <v>42833.5829269081</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,10 +26476,10 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525346</v>
+        <v>88963.40690525345</v>
       </c>
       <c r="G5" t="n">
         <v>91620.84500680171</v>
@@ -26488,28 +26488,28 @@
         <v>91620.84500680171</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="K5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="O5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="P5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95106.4341021553</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290396.7641140749</v>
+        <v>-290396.7641140771</v>
       </c>
       <c r="C6" t="n">
-        <v>30130.36080926254</v>
+        <v>30130.3608092658</v>
       </c>
       <c r="D6" t="n">
-        <v>8664.071707718183</v>
+        <v>8664.071707717951</v>
       </c>
       <c r="E6" t="n">
-        <v>-421030.4001935117</v>
+        <v>-421378.019123318</v>
       </c>
       <c r="F6" t="n">
-        <v>135917.6337860985</v>
+        <v>135741.1821208317</v>
       </c>
       <c r="G6" t="n">
-        <v>280493.1356431862</v>
+        <v>280453.5466938391</v>
       </c>
       <c r="H6" t="n">
-        <v>305781.2975249574</v>
+        <v>305741.7085756102</v>
       </c>
       <c r="I6" t="n">
-        <v>272199.2742854233</v>
+        <v>272199.2742854236</v>
       </c>
       <c r="J6" t="n">
-        <v>305266.3268212401</v>
+        <v>305266.3268212394</v>
       </c>
       <c r="K6" t="n">
-        <v>304294.7883425574</v>
+        <v>304294.788342558</v>
       </c>
       <c r="L6" t="n">
-        <v>270176.9694301584</v>
+        <v>270176.9694301583</v>
       </c>
       <c r="M6" t="n">
-        <v>131987.5235138033</v>
+        <v>131987.5235138029</v>
       </c>
       <c r="N6" t="n">
-        <v>265557.8492783409</v>
+        <v>265557.849278341</v>
       </c>
       <c r="O6" t="n">
-        <v>311237.1684521047</v>
+        <v>311237.1684521048</v>
       </c>
       <c r="P6" t="n">
-        <v>311237.1684521047</v>
+        <v>311237.1684521044</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
@@ -26722,10 +26722,10 @@
         <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.646685862274</v>
+        <v>358.6466858622768</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1241.96746618442</v>
+        <v>1241.967466184419</v>
       </c>
       <c r="G3" t="n">
         <v>1241.967466184419</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,7 +26796,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>1017.90322602686</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.646685862274</v>
+        <v>358.6466858622768</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529409</v>
+        <v>38.21325740529124</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,7 +26969,7 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>152.1907655911214</v>
+        <v>152.1907655911211</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570357</v>
+        <v>36.19240443570334</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333602</v>
+        <v>26.97452717333402</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245677</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,25 +27030,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.3518861620928</v>
+        <v>44.35188616209257</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378837</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333625</v>
+        <v>26.97452717333402</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245675</v>
+        <v>186.5017706245667</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333602</v>
+        <v>26.97452717333402</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245677</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>384.0555658879229</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.0404619392871</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7090116772264</v>
+        <v>324.7090116772263</v>
       </c>
       <c r="I2" t="n">
-        <v>132.0705801419225</v>
+        <v>132.0705801419201</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>59.30091741533634</v>
+        <v>36.48043756154502</v>
       </c>
       <c r="S2" t="n">
-        <v>176.1651495698169</v>
+        <v>153.9813785955944</v>
       </c>
       <c r="T2" t="n">
-        <v>216.7843887908164</v>
+        <v>216.7843887908163</v>
       </c>
       <c r="U2" t="n">
         <v>251.2303092500717</v>
       </c>
       <c r="V2" t="n">
-        <v>307.6519798149179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>124.6245857108482</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>134.8246006016103</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5720884426767</v>
+        <v>116.4718097874579</v>
       </c>
       <c r="H3" t="n">
         <v>104.7850668566028</v>
       </c>
       <c r="I3" t="n">
-        <v>62.83647734180327</v>
+        <v>40.01599748801246</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.441104439738</v>
+        <v>52.26158429352623</v>
       </c>
       <c r="S3" t="n">
-        <v>134.5337411120612</v>
+        <v>157.3542209658497</v>
       </c>
       <c r="T3" t="n">
-        <v>174.2348497437931</v>
+        <v>197.0553295975817</v>
       </c>
       <c r="U3" t="n">
         <v>225.890630191466</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>231.5947045057026</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.6134827927786</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3442394331333</v>
+        <v>144.5237595793427</v>
       </c>
       <c r="H4" t="n">
-        <v>136.376787970693</v>
+        <v>156.4770666259099</v>
       </c>
       <c r="I4" t="n">
-        <v>113.1807616827745</v>
+        <v>136.001241536563</v>
       </c>
       <c r="J4" t="n">
-        <v>47.63466739616615</v>
+        <v>24.81418754237518</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.00639368649102</v>
+        <v>32.00639368649059</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2136125529923</v>
+        <v>148.2136125529921</v>
       </c>
       <c r="S4" t="n">
-        <v>212.7456849747103</v>
+        <v>212.7456849747102</v>
       </c>
       <c r="T4" t="n">
         <v>225.182246110982</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7025184828024</v>
+        <v>266.4227196813723</v>
       </c>
       <c r="X4" t="n">
-        <v>202.8891755352485</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306533</v>
+        <v>369.7038852163564</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>135.5371182495113</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.8490567988244</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27713,7 +27713,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>10.21152625211678</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>205.1988458620817</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.7655809250194</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.2753302804353</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.32019944182534</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27837,10 +27837,10 @@
         <v>236.7279913094664</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9146483619125</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.929186254183</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460839</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>250.760610654323</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410433</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>337.3905894896998</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,10 +27941,10 @@
         <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>36.55253448447961</v>
+        <v>73.12645756197178</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>36.50281289328871</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>26.5763295239214</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28065,19 +28065,19 @@
         <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W10" t="n">
-        <v>174.4103382116674</v>
+        <v>234.7010565462671</v>
       </c>
       <c r="X10" t="n">
-        <v>113.5969952641135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>166.7627115617709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
         <v>17.98965543945178</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I20" t="n">
         <v>17.98965543945178</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
         <v>31.61020235221394</v>
@@ -30241,7 +30241,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221622</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059392</v>
+        <v>1.441795722059403</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854075</v>
+        <v>14.76579043854087</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469475</v>
+        <v>55.58482957469519</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3706096651384</v>
+        <v>122.3706096651394</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799125</v>
+        <v>183.401822579914</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088877</v>
+        <v>227.5261784088895</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810613</v>
+        <v>253.1667130810634</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503795</v>
+        <v>252.2335434503815</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651345</v>
+        <v>242.9263589651364</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767933</v>
+        <v>207.3320270767949</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805412</v>
+        <v>155.6977177805425</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581334</v>
+        <v>90.56820052581406</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642842</v>
+        <v>32.85492001642868</v>
       </c>
       <c r="T2" t="n">
-        <v>6.31146077331499</v>
+        <v>6.311460773315041</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647513</v>
+        <v>0.1153436577647522</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339477</v>
+        <v>0.7714287205339539</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893655</v>
+        <v>7.450377379893713</v>
       </c>
       <c r="I3" t="n">
-        <v>26.5601555096118</v>
+        <v>26.56015550961201</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395513</v>
+        <v>72.88309679395572</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697296</v>
+        <v>124.5688210697306</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336628</v>
+        <v>161.3748596336648</v>
       </c>
       <c r="M3" t="n">
-        <v>164.9545137758069</v>
+        <v>150.6978305711077</v>
       </c>
       <c r="N3" t="n">
-        <v>154.1621919371219</v>
+        <v>154.1621919371239</v>
       </c>
       <c r="O3" t="n">
-        <v>151.160041093533</v>
+        <v>165.416724298235</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289782</v>
+        <v>147.3090510289793</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429833</v>
+        <v>98.47219948429911</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911653</v>
+        <v>47.89624985911691</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798801</v>
+        <v>14.32895013798812</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239902</v>
+        <v>3.109399097239927</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881238</v>
+        <v>0.05075188950881278</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.646739925325412</v>
+        <v>0.6467399253254171</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529576</v>
+        <v>5.750105881529621</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069512</v>
+        <v>19.44923339069528</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050662</v>
+        <v>45.72451272050699</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041507967</v>
+        <v>75.13942041508027</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428899</v>
+        <v>96.15258853428976</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216916</v>
+        <v>101.3794230216924</v>
       </c>
       <c r="N4" t="n">
-        <v>98.96884693638789</v>
+        <v>98.96884693638867</v>
       </c>
       <c r="O4" t="n">
-        <v>91.41374871781372</v>
+        <v>91.41374871781444</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117525</v>
+        <v>78.22025424117587</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.15564956520337</v>
+        <v>54.1556495652038</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417715</v>
+        <v>29.07977882417739</v>
       </c>
       <c r="S4" t="n">
-        <v>11.27091306226195</v>
+        <v>11.27091306226204</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299487</v>
+        <v>2.763343317299509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956797</v>
+        <v>0.03527672319956825</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>195.603766958386</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
         <v>254.246694046942</v>
@@ -31619,7 +31619,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>168.8020434923344</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.992834034912236</v>
+        <v>4.992834034912235</v>
       </c>
       <c r="H14" t="n">
-        <v>51.13286156004495</v>
+        <v>51.13286156004494</v>
       </c>
       <c r="I14" t="n">
-        <v>192.4862341309542</v>
+        <v>192.4862341309541</v>
       </c>
       <c r="J14" t="n">
-        <v>423.7605476706328</v>
+        <v>423.7605476706327</v>
       </c>
       <c r="K14" t="n">
-        <v>635.1072123684679</v>
+        <v>635.1072123684677</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9066569644134</v>
+        <v>787.9066569644132</v>
       </c>
       <c r="M14" t="n">
-        <v>876.6979692327839</v>
+        <v>876.6979692327836</v>
       </c>
       <c r="N14" t="n">
-        <v>890.8838589344783</v>
+        <v>890.8838589344781</v>
       </c>
       <c r="O14" t="n">
-        <v>841.2363654998197</v>
+        <v>841.2363654998195</v>
       </c>
       <c r="P14" t="n">
-        <v>717.9757752629238</v>
+        <v>717.9757752629235</v>
       </c>
       <c r="Q14" t="n">
-        <v>539.1699063876291</v>
+        <v>539.169906387629</v>
       </c>
       <c r="R14" t="n">
         <v>313.631110945556</v>
@@ -32026,7 +32026,7 @@
         <v>113.7742055705627</v>
       </c>
       <c r="T14" t="n">
-        <v>21.85613098782833</v>
+        <v>21.85613098782832</v>
       </c>
       <c r="U14" t="n">
         <v>0.3994267227929788</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.671401719717431</v>
+        <v>2.67140171971743</v>
       </c>
       <c r="H15" t="n">
         <v>25.80011660884993</v>
       </c>
       <c r="I15" t="n">
-        <v>91.97589254290278</v>
+        <v>91.97589254290277</v>
       </c>
       <c r="J15" t="n">
         <v>252.3888791422508</v>
       </c>
       <c r="K15" t="n">
-        <v>431.3727943633187</v>
+        <v>431.3727943633186</v>
       </c>
       <c r="L15" t="n">
-        <v>580.0339567307519</v>
+        <v>580.0339567307518</v>
       </c>
       <c r="M15" t="n">
-        <v>676.8722690705087</v>
+        <v>676.8722690705085</v>
       </c>
       <c r="N15" t="n">
-        <v>694.7870639365085</v>
+        <v>694.7870639365084</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5944258311907</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>510.1205617239364</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.2397755427336</v>
+        <v>306.0918026198743</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.62011527633032</v>
+        <v>49.62011527633031</v>
       </c>
       <c r="T15" t="n">
         <v>10.76762359833473</v>
@@ -32151,40 +32151,40 @@
         <v>19.91219970374366</v>
       </c>
       <c r="I16" t="n">
-        <v>67.35128488750919</v>
+        <v>67.35128488750918</v>
       </c>
       <c r="J16" t="n">
-        <v>158.3406718773153</v>
+        <v>158.3406718773152</v>
       </c>
       <c r="K16" t="n">
         <v>260.202364226834</v>
       </c>
       <c r="L16" t="n">
-        <v>332.9694416718033</v>
+        <v>332.9694416718032</v>
       </c>
       <c r="M16" t="n">
-        <v>351.0695904822614</v>
+        <v>351.0695904822613</v>
       </c>
       <c r="N16" t="n">
         <v>342.7219402997106</v>
       </c>
       <c r="O16" t="n">
-        <v>316.5591830202519</v>
+        <v>316.5591830202518</v>
       </c>
       <c r="P16" t="n">
-        <v>270.8710683625822</v>
+        <v>270.8710683625821</v>
       </c>
       <c r="Q16" t="n">
-        <v>187.5370873938474</v>
+        <v>187.5370873938473</v>
       </c>
       <c r="R16" t="n">
         <v>100.7011653729203</v>
       </c>
       <c r="S16" t="n">
-        <v>39.0303546340251</v>
+        <v>39.03035463402509</v>
       </c>
       <c r="T16" t="n">
-        <v>9.569257526338967</v>
+        <v>9.569257526338966</v>
       </c>
       <c r="U16" t="n">
         <v>0.1221607343787955</v>
@@ -32318,10 +32318,10 @@
         <v>431.3727943633186</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>580.0339567307518</v>
       </c>
       <c r="M18" t="n">
-        <v>676.8722690705085</v>
+        <v>148.963804116548</v>
       </c>
       <c r="N18" t="n">
         <v>694.7870639365084</v>
@@ -32333,7 +32333,7 @@
         <v>510.1205617239364</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.5731981840056</v>
+        <v>341.0020861870882</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32555,7 @@
         <v>431.3727943633186</v>
       </c>
       <c r="L21" t="n">
-        <v>580.0339567307518</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>676.8722690705085</v>
@@ -32567,10 +32567,10 @@
         <v>635.5944258311906</v>
       </c>
       <c r="P21" t="n">
-        <v>183.2324088710428</v>
+        <v>423.6916737208537</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>341.0020861870882</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>391.712654391959</v>
       </c>
       <c r="P24" t="n">
-        <v>388.6302480819394</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>249.623485125152</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,10 +33102,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
         <v>342.6725659692048</v>
@@ -33117,22 +33117,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>497.9845106407324</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>248.9105443196368</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I35" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33688,7 +33688,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>229.1240985065463</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L37" t="n">
         <v>342.6725659692048</v>
@@ -33828,22 +33828,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I38" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>160.7914670367595</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>154.478932257895</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I41" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34162,7 +34162,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>160.7914670367595</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>490.9818516830062</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
         <v>342.6725659692048</v>
@@ -34302,22 +34302,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869771</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>497.9845106407324</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>434.1933829220973</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.070292720288743</v>
       </c>
       <c r="L2" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="N2" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="O2" t="n">
-        <v>21.89844026373652</v>
+        <v>12.82814754344972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="M3" t="n">
-        <v>22.8204798537886</v>
+        <v>8.563796649089385</v>
       </c>
       <c r="N3" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="O3" t="n">
-        <v>8.563796649088609</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464792</v>
+        <v>13.33464361464908</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.8204798537886</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="M4" t="n">
-        <v>21.89844026373654</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="N4" t="n">
-        <v>22.8204798537886</v>
+        <v>22.82047985379061</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>21.89844026373846</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>49.79500702712463</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,13 +34948,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>47.78308755128121</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>42.86418322768703</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>49.79500702712463</v>
@@ -35103,13 +35103,13 @@
         <v>47.78308755128119</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>57.04938717851184</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249237</v>
@@ -35267,7 +35267,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>34.8276360780042</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.4806606383279</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>112.1126601249237</v>
@@ -35340,7 +35340,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>30.10219503710387</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="O10" t="n">
         <v>112.1126601249237</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.7146431439465</v>
+        <v>242.7146431439464</v>
       </c>
       <c r="K14" t="n">
-        <v>415.0173613234874</v>
+        <v>415.0173613234871</v>
       </c>
       <c r="L14" t="n">
-        <v>552.1402419944261</v>
+        <v>552.1402419944259</v>
       </c>
       <c r="M14" t="n">
-        <v>646.3517360055112</v>
+        <v>646.3517360055109</v>
       </c>
       <c r="N14" t="n">
-        <v>661.4707953378875</v>
+        <v>661.4707953378872</v>
       </c>
       <c r="O14" t="n">
-        <v>611.138154078133</v>
+        <v>611.1381540781327</v>
       </c>
       <c r="P14" t="n">
-        <v>486.7427795076542</v>
+        <v>486.742779507654</v>
       </c>
       <c r="Q14" t="n">
-        <v>316.8642165131796</v>
+        <v>316.8642165131795</v>
       </c>
       <c r="R14" t="n">
-        <v>98.04557313142391</v>
+        <v>98.04557313142385</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>125.5512524755841</v>
       </c>
       <c r="K15" t="n">
-        <v>293.5313553889597</v>
+        <v>293.5313553889596</v>
       </c>
       <c r="L15" t="n">
-        <v>441.4795769508777</v>
+        <v>441.4795769508776</v>
       </c>
       <c r="M15" t="n">
         <v>534.7382351484903</v>
       </c>
       <c r="N15" t="n">
-        <v>563.4453518531752</v>
+        <v>563.4453518531751</v>
       </c>
       <c r="O15" t="n">
-        <v>492.9981813867463</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>376.1461543096062</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.25800145671212</v>
+        <v>166.1100285338528</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.98149176064248</v>
+        <v>64.98149176064246</v>
       </c>
       <c r="K16" t="n">
-        <v>237.9328724009512</v>
+        <v>237.9328724009511</v>
       </c>
       <c r="L16" t="n">
-        <v>360.5594669321194</v>
+        <v>360.5594669321193</v>
       </c>
       <c r="M16" t="n">
-        <v>390.653467444102</v>
+        <v>390.6534674441019</v>
       </c>
       <c r="N16" t="n">
-        <v>386.8541126789393</v>
+        <v>386.8541126789391</v>
       </c>
       <c r="O16" t="n">
         <v>341.1443109342915</v>
@@ -35823,7 +35823,7 @@
         <v>268.1496276274756</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.375044142153</v>
+        <v>101.3750441421529</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>293.5313553889596</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>441.4795769508776</v>
       </c>
       <c r="M18" t="n">
-        <v>534.7382351484903</v>
+        <v>6.8297701945297</v>
       </c>
       <c r="N18" t="n">
         <v>563.4453518531751</v>
@@ -35981,7 +35981,7 @@
         <v>376.1461543096062</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.5914240979841</v>
+        <v>201.0203121010667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285639</v>
+        <v>96.59169411285637</v>
       </c>
       <c r="K19" t="n">
         <v>269.5430747531651</v>
       </c>
       <c r="L19" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M19" t="n">
         <v>422.2636697963158</v>
       </c>
       <c r="N19" t="n">
-        <v>418.4643150311531</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O19" t="n">
         <v>372.7545132865054</v>
@@ -36060,7 +36060,7 @@
         <v>299.7598299796895</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>293.5313553889596</v>
       </c>
       <c r="L21" t="n">
-        <v>441.4795769508776</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>534.7382351484903</v>
@@ -36215,10 +36215,10 @@
         <v>492.9981813867462</v>
       </c>
       <c r="P21" t="n">
-        <v>49.25800145671258</v>
+        <v>289.7172663065235</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.0203121010667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="P24" t="n">
-        <v>254.6558406676091</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>111.0691053452778</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>359.4301308608582</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0691053452777</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>86.99006458452799</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>69.06225485572025</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010902</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.95384037009285</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>15.92455247802082</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.95384037009282</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>357.007444268676</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169898</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>359.4301308608582</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>292.059349000079</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
